--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H2">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I2">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J2">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N2">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="O2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P2">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q2">
-        <v>6.038769262239903</v>
+        <v>17.87408837341689</v>
       </c>
       <c r="R2">
-        <v>6.038769262239903</v>
+        <v>160.866795360752</v>
       </c>
       <c r="S2">
-        <v>0.01422575257222997</v>
+        <v>0.03116428269362299</v>
       </c>
       <c r="T2">
-        <v>0.01422575257222997</v>
+        <v>0.03116428269362298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H3">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I3">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J3">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N3">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P3">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q3">
-        <v>7.572724528664657</v>
+        <v>21.55207436183289</v>
       </c>
       <c r="R3">
-        <v>7.572724528664657</v>
+        <v>193.968669256496</v>
       </c>
       <c r="S3">
-        <v>0.01783934784792254</v>
+        <v>0.03757701786039384</v>
       </c>
       <c r="T3">
-        <v>0.01783934784792254</v>
+        <v>0.03757701786039384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.63333391816089</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H4">
-        <v>2.63333391816089</v>
+        <v>22.190764</v>
       </c>
       <c r="I4">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J4">
-        <v>0.04877930469125746</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.69434346734889</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="N4">
-        <v>2.69434346734889</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="O4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="P4">
-        <v>0.342649498120062</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="Q4">
-        <v>7.095106039745051</v>
+        <v>0.2161183162364445</v>
       </c>
       <c r="R4">
-        <v>7.095106039745051</v>
+        <v>1.945064846128</v>
       </c>
       <c r="S4">
-        <v>0.01671420427110496</v>
+        <v>0.0003768120735309334</v>
       </c>
       <c r="T4">
-        <v>0.01671420427110496</v>
+        <v>0.0003768120735309333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.9179894862515</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H5">
-        <v>33.9179894862515</v>
+        <v>22.190764</v>
       </c>
       <c r="I5">
-        <v>0.6282894593254708</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J5">
-        <v>0.6282894593254708</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.29320300801706</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N5">
-        <v>2.29320300801706</v>
+        <v>0.085553</v>
       </c>
       <c r="O5">
-        <v>0.2916350009962236</v>
+        <v>0.003220794087830817</v>
       </c>
       <c r="P5">
-        <v>0.2916350009962236</v>
+        <v>0.003220794087830818</v>
       </c>
       <c r="Q5">
-        <v>77.78083551576296</v>
+        <v>0.2109429369435556</v>
       </c>
       <c r="R5">
-        <v>77.78083551576296</v>
+        <v>1.898486432492</v>
       </c>
       <c r="S5">
-        <v>0.1832311970963005</v>
+        <v>0.000367788565312736</v>
       </c>
       <c r="T5">
-        <v>0.1832311970963005</v>
+        <v>0.000367788565312736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.9179894862515</v>
+        <v>7.396921333333334</v>
       </c>
       <c r="H6">
-        <v>33.9179894862515</v>
+        <v>22.190764</v>
       </c>
       <c r="I6">
-        <v>0.6282894593254708</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="J6">
-        <v>0.6282894593254708</v>
+        <v>0.1141918903485193</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87571753678448</v>
+        <v>3.466422333333333</v>
       </c>
       <c r="N6">
-        <v>2.87571753678448</v>
+        <v>10.399267</v>
       </c>
       <c r="O6">
-        <v>0.3657155008837144</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="P6">
-        <v>0.3657155008837144</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="Q6">
-        <v>97.53855717808504</v>
+        <v>25.64085330777645</v>
       </c>
       <c r="R6">
-        <v>97.53855717808504</v>
+        <v>230.767679769988</v>
       </c>
       <c r="S6">
-        <v>0.2297751943171726</v>
+        <v>0.04470598915565884</v>
       </c>
       <c r="T6">
-        <v>0.2297751943171726</v>
+        <v>0.04470598915565883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.9179894862515</v>
+        <v>35.068685</v>
       </c>
       <c r="H7">
-        <v>33.9179894862515</v>
+        <v>105.206055</v>
       </c>
       <c r="I7">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J7">
-        <v>0.6282894593254708</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.69434346734889</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N7">
-        <v>2.69434346734889</v>
+        <v>7.249268</v>
       </c>
       <c r="O7">
-        <v>0.342649498120062</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P7">
-        <v>0.342649498120062</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q7">
-        <v>91.38671339789006</v>
+        <v>84.74076532419333</v>
       </c>
       <c r="R7">
-        <v>91.38671339789006</v>
+        <v>762.66688791774</v>
       </c>
       <c r="S7">
-        <v>0.2152830679119977</v>
+        <v>0.1477493627123811</v>
       </c>
       <c r="T7">
-        <v>0.2152830679119977</v>
+        <v>0.147749362712381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.86303099194348</v>
+        <v>35.068685</v>
       </c>
       <c r="H8">
-        <v>2.86303099194348</v>
+        <v>105.206055</v>
       </c>
       <c r="I8">
-        <v>0.05303416332177872</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J8">
-        <v>0.05303416332177872</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29320300801706</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N8">
-        <v>2.29320300801706</v>
+        <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.2916350009962236</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P8">
-        <v>0.2916350009962236</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q8">
-        <v>6.565511282770855</v>
+        <v>102.1780377041133</v>
       </c>
       <c r="R8">
-        <v>6.565511282770855</v>
+        <v>919.60233933702</v>
       </c>
       <c r="S8">
-        <v>0.01546661827318082</v>
+        <v>0.1781520369355727</v>
       </c>
       <c r="T8">
-        <v>0.01546661827318082</v>
+        <v>0.1781520369355727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.86303099194348</v>
+        <v>35.068685</v>
       </c>
       <c r="H9">
-        <v>2.86303099194348</v>
+        <v>105.206055</v>
       </c>
       <c r="I9">
-        <v>0.05303416332177872</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J9">
-        <v>0.05303416332177872</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.87571753678448</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="N9">
-        <v>2.87571753678448</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="O9">
-        <v>0.3657155008837144</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="P9">
-        <v>0.3657155008837144</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="Q9">
-        <v>8.23326843188933</v>
+        <v>1.024613459206667</v>
       </c>
       <c r="R9">
-        <v>8.23326843188933</v>
+        <v>9.221521132860001</v>
       </c>
       <c r="S9">
-        <v>0.01939541560317301</v>
+        <v>0.001786459976437017</v>
       </c>
       <c r="T9">
-        <v>0.01939541560317301</v>
+        <v>0.001786459976437017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.86303099194348</v>
+        <v>35.068685</v>
       </c>
       <c r="H10">
-        <v>2.86303099194348</v>
+        <v>105.206055</v>
       </c>
       <c r="I10">
-        <v>0.05303416332177872</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J10">
-        <v>0.05303416332177872</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.69434346734889</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N10">
-        <v>2.69434346734889</v>
+        <v>0.085553</v>
       </c>
       <c r="O10">
-        <v>0.342649498120062</v>
+        <v>0.003220794087830817</v>
       </c>
       <c r="P10">
-        <v>0.342649498120062</v>
+        <v>0.003220794087830818</v>
       </c>
       <c r="Q10">
-        <v>7.713988849960328</v>
+        <v>1.000077069268333</v>
       </c>
       <c r="R10">
-        <v>7.713988849960328</v>
+        <v>9.000693623415001</v>
       </c>
       <c r="S10">
-        <v>0.01817212944542488</v>
+        <v>0.001743679669193129</v>
       </c>
       <c r="T10">
-        <v>0.01817212944542488</v>
+        <v>0.001743679669193129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.74704134588599</v>
+        <v>35.068685</v>
       </c>
       <c r="H11">
-        <v>4.74704134588599</v>
+        <v>105.206055</v>
       </c>
       <c r="I11">
-        <v>0.08793316130401282</v>
+        <v>0.5413819144108916</v>
       </c>
       <c r="J11">
-        <v>0.08793316130401282</v>
+        <v>0.5413819144108915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.29320300801706</v>
+        <v>3.466422333333333</v>
       </c>
       <c r="N11">
-        <v>2.29320300801706</v>
+        <v>10.399267</v>
       </c>
       <c r="O11">
-        <v>0.2916350009962236</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="P11">
-        <v>0.2916350009962236</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="Q11">
-        <v>10.88592949356711</v>
+        <v>121.5628728846317</v>
       </c>
       <c r="R11">
-        <v>10.88592949356711</v>
+        <v>1094.065855961685</v>
       </c>
       <c r="S11">
-        <v>0.02564438758449687</v>
+        <v>0.2119503751173077</v>
       </c>
       <c r="T11">
-        <v>0.02564438758449687</v>
+        <v>0.2119503751173077</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.74704134588599</v>
+        <v>5.299122</v>
       </c>
       <c r="H12">
-        <v>4.74704134588599</v>
+        <v>15.897366</v>
       </c>
       <c r="I12">
-        <v>0.08793316130401282</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J12">
-        <v>0.08793316130401282</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87571753678448</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N12">
-        <v>2.87571753678448</v>
+        <v>7.249268</v>
       </c>
       <c r="O12">
-        <v>0.3657155008837144</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P12">
-        <v>0.3657155008837144</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q12">
-        <v>13.65115004620534</v>
+        <v>12.804918514232</v>
       </c>
       <c r="R12">
-        <v>13.65115004620534</v>
+        <v>115.244266628088</v>
       </c>
       <c r="S12">
-        <v>0.0321585201305855</v>
+        <v>0.02232595543389089</v>
       </c>
       <c r="T12">
-        <v>0.0321585201305855</v>
+        <v>0.02232595543389089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.74704134588599</v>
+        <v>5.299122</v>
       </c>
       <c r="H13">
-        <v>4.74704134588599</v>
+        <v>15.897366</v>
       </c>
       <c r="I13">
-        <v>0.08793316130401282</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J13">
-        <v>0.08793316130401282</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.69434346734889</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N13">
-        <v>2.69434346734889</v>
+        <v>8.740964</v>
       </c>
       <c r="O13">
-        <v>0.342649498120062</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P13">
-        <v>0.342649498120062</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q13">
-        <v>12.790159839523</v>
+        <v>15.439811544536</v>
       </c>
       <c r="R13">
-        <v>12.790159839523</v>
+        <v>138.958303900824</v>
       </c>
       <c r="S13">
-        <v>0.03013025358893045</v>
+        <v>0.02692001078084638</v>
       </c>
       <c r="T13">
-        <v>0.03013025358893045</v>
+        <v>0.02692001078084638</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.61949934922138</v>
+        <v>5.299122</v>
       </c>
       <c r="H14">
-        <v>1.61949934922138</v>
+        <v>15.897366</v>
       </c>
       <c r="I14">
-        <v>0.0299992536678124</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J14">
-        <v>0.0299992536678124</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.29320300801706</v>
+        <v>0.02921733333333333</v>
       </c>
       <c r="N14">
-        <v>2.29320300801706</v>
+        <v>0.08765200000000001</v>
       </c>
       <c r="O14">
-        <v>0.2916350009962236</v>
+        <v>0.003299814657423431</v>
       </c>
       <c r="P14">
-        <v>0.2916350009962236</v>
+        <v>0.003299814657423432</v>
       </c>
       <c r="Q14">
-        <v>3.71384077911614</v>
+        <v>0.154826213848</v>
       </c>
       <c r="R14">
-        <v>3.71384077911614</v>
+        <v>1.393435924632</v>
       </c>
       <c r="S14">
-        <v>0.008748832373298435</v>
+        <v>0.0002699465167643691</v>
       </c>
       <c r="T14">
-        <v>0.008748832373298435</v>
+        <v>0.0002699465167643691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.61949934922138</v>
+        <v>5.299122</v>
       </c>
       <c r="H15">
-        <v>1.61949934922138</v>
+        <v>15.897366</v>
       </c>
       <c r="I15">
-        <v>0.0299992536678124</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J15">
-        <v>0.0299992536678124</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.87571753678448</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N15">
-        <v>2.87571753678448</v>
+        <v>0.085553</v>
       </c>
       <c r="O15">
-        <v>0.3657155008837144</v>
+        <v>0.003220794087830817</v>
       </c>
       <c r="P15">
-        <v>0.3657155008837144</v>
+        <v>0.003220794087830818</v>
       </c>
       <c r="Q15">
-        <v>4.657222679366975</v>
+        <v>0.151118594822</v>
       </c>
       <c r="R15">
-        <v>4.657222679366975</v>
+        <v>1.360067353398</v>
       </c>
       <c r="S15">
-        <v>0.01097119208126162</v>
+        <v>0.0002634821150543293</v>
       </c>
       <c r="T15">
-        <v>0.01097119208126162</v>
+        <v>0.0002634821150543293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.61949934922138</v>
+        <v>5.299122</v>
       </c>
       <c r="H16">
-        <v>1.61949934922138</v>
+        <v>15.897366</v>
       </c>
       <c r="I16">
-        <v>0.0299992536678124</v>
+        <v>0.08180656939537004</v>
       </c>
       <c r="J16">
-        <v>0.0299992536678124</v>
+        <v>0.08180656939537002</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.69434346734889</v>
+        <v>3.466422333333333</v>
       </c>
       <c r="N16">
-        <v>2.69434346734889</v>
+        <v>10.399267</v>
       </c>
       <c r="O16">
-        <v>0.342649498120062</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="P16">
-        <v>0.342649498120062</v>
+        <v>0.3914988097597293</v>
       </c>
       <c r="Q16">
-        <v>4.363487491950404</v>
+        <v>18.368994847858</v>
       </c>
       <c r="R16">
-        <v>4.363487491950404</v>
+        <v>165.320953630722</v>
       </c>
       <c r="S16">
-        <v>0.01027922921325235</v>
+        <v>0.03202717454881407</v>
       </c>
       <c r="T16">
-        <v>0.01027922921325235</v>
+        <v>0.03202717454881406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.20375956542966</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H17">
-        <v>8.20375956542966</v>
+        <v>16.20007</v>
       </c>
       <c r="I17">
-        <v>0.1519646576896678</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J17">
-        <v>0.1519646576896678</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.29320300801706</v>
+        <v>2.416422666666667</v>
       </c>
       <c r="N17">
-        <v>2.29320300801706</v>
+        <v>7.249268</v>
       </c>
       <c r="O17">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="P17">
-        <v>0.2916350009962236</v>
+        <v>0.2729115228630338</v>
       </c>
       <c r="Q17">
-        <v>18.81288611249203</v>
+        <v>13.04873878319555</v>
       </c>
       <c r="R17">
-        <v>18.81288611249203</v>
+        <v>117.43864904876</v>
       </c>
       <c r="S17">
-        <v>0.04431821309671705</v>
+        <v>0.02275106711677349</v>
       </c>
       <c r="T17">
-        <v>0.04431821309671705</v>
+        <v>0.02275106711677348</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.20375956542966</v>
+        <v>5.400023333333333</v>
       </c>
       <c r="H18">
-        <v>8.20375956542966</v>
+        <v>16.20007</v>
       </c>
       <c r="I18">
-        <v>0.1519646576896678</v>
+        <v>0.08336425988209949</v>
       </c>
       <c r="J18">
-        <v>0.1519646576896678</v>
+        <v>0.08336425988209947</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87571753678448</v>
+        <v>2.913654666666667</v>
       </c>
       <c r="N18">
-        <v>2.87571753678448</v>
+        <v>8.740964</v>
       </c>
       <c r="O18">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319826</v>
       </c>
       <c r="P18">
-        <v>0.3657155008837144</v>
+        <v>0.3290690586319827</v>
       </c>
       <c r="Q18">
-        <v>23.5916952498695</v>
+        <v>15.73380318527555</v>
       </c>
       <c r="R18">
-        <v>23.5916952498695</v>
+        <v>141.60422866748</v>
       </c>
       <c r="S18">
-        <v>0.05557583090359905</v>
+        <v>0.02743259852295443</v>
       </c>
       <c r="T18">
-        <v>0.05557583090359905</v>
+        <v>0.02743259852295444</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.400023333333333</v>
+      </c>
+      <c r="H19">
+        <v>16.20007</v>
+      </c>
+      <c r="I19">
+        <v>0.08336425988209949</v>
+      </c>
+      <c r="J19">
+        <v>0.08336425988209947</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P19">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q19">
+        <v>0.1577742817377778</v>
+      </c>
+      <c r="R19">
+        <v>1.41996853564</v>
+      </c>
+      <c r="S19">
+        <v>0.000275086606664208</v>
+      </c>
+      <c r="T19">
+        <v>0.000275086606664208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.400023333333333</v>
+      </c>
+      <c r="H20">
+        <v>16.20007</v>
+      </c>
+      <c r="I20">
+        <v>0.08336425988209949</v>
+      </c>
+      <c r="J20">
+        <v>0.08336425988209947</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.085553</v>
+      </c>
+      <c r="O20">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P20">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q20">
+        <v>0.1539960654122222</v>
+      </c>
+      <c r="R20">
+        <v>1.38596458871</v>
+      </c>
+      <c r="S20">
+        <v>0.0002684991153646578</v>
+      </c>
+      <c r="T20">
+        <v>0.0002684991153646578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.400023333333333</v>
+      </c>
+      <c r="H21">
+        <v>16.20007</v>
+      </c>
+      <c r="I21">
+        <v>0.08336425988209949</v>
+      </c>
+      <c r="J21">
+        <v>0.08336425988209947</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N21">
+        <v>10.399267</v>
+      </c>
+      <c r="O21">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P21">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q21">
+        <v>18.71876148318778</v>
+      </c>
+      <c r="R21">
+        <v>168.46885334869</v>
+      </c>
+      <c r="S21">
+        <v>0.0326370085203427</v>
+      </c>
+      <c r="T21">
+        <v>0.03263700852034269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.636677333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.910032</v>
+      </c>
+      <c r="I22">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="J22">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.249268</v>
+      </c>
+      <c r="O22">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P22">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q22">
+        <v>3.954904206286222</v>
+      </c>
+      <c r="R22">
+        <v>35.594137856576</v>
+      </c>
+      <c r="S22">
+        <v>0.006895554622758146</v>
+      </c>
+      <c r="T22">
+        <v>0.006895554622758144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.636677333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.910032</v>
+      </c>
+      <c r="I23">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="J23">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N23">
+        <v>8.740964</v>
+      </c>
+      <c r="O23">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P23">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q23">
+        <v>4.768712550094222</v>
+      </c>
+      <c r="R23">
+        <v>42.918412950848</v>
+      </c>
+      <c r="S23">
+        <v>0.008314466331988625</v>
+      </c>
+      <c r="T23">
+        <v>0.008314466331988627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.636677333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.910032</v>
+      </c>
+      <c r="I24">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="J24">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P24">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q24">
+        <v>0.04781934720711111</v>
+      </c>
+      <c r="R24">
+        <v>0.4303741248640001</v>
+      </c>
+      <c r="S24">
+        <v>8.337519785363115E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.337519785363115E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.636677333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.910032</v>
+      </c>
+      <c r="I25">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="J25">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.085553</v>
+      </c>
+      <c r="O25">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P25">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q25">
+        <v>0.04667421863288889</v>
+      </c>
+      <c r="R25">
+        <v>0.420067967696</v>
+      </c>
+      <c r="S25">
+        <v>8.13786143153802E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.13786143153802E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>8.20375956542966</v>
-      </c>
-      <c r="H19">
-        <v>8.20375956542966</v>
-      </c>
-      <c r="I19">
-        <v>0.1519646576896678</v>
-      </c>
-      <c r="J19">
-        <v>0.1519646576896678</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="N19">
-        <v>2.69434346734889</v>
-      </c>
-      <c r="O19">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="P19">
-        <v>0.342649498120062</v>
-      </c>
-      <c r="Q19">
-        <v>22.10374599281637</v>
-      </c>
-      <c r="R19">
-        <v>22.10374599281637</v>
-      </c>
-      <c r="S19">
-        <v>0.0520706136893517</v>
-      </c>
-      <c r="T19">
-        <v>0.0520706136893517</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.636677333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.910032</v>
+      </c>
+      <c r="I26">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="J26">
+        <v>0.02526663055637566</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N26">
+        <v>10.399267</v>
+      </c>
+      <c r="O26">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P26">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q26">
+        <v>5.673414860727111</v>
+      </c>
+      <c r="R26">
+        <v>51.060733746544</v>
+      </c>
+      <c r="S26">
+        <v>0.009891855789459879</v>
+      </c>
+      <c r="T26">
+        <v>0.009891855789459879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.974811333333333</v>
+      </c>
+      <c r="H27">
+        <v>29.924434</v>
+      </c>
+      <c r="I27">
+        <v>0.1539887354067442</v>
+      </c>
+      <c r="J27">
+        <v>0.1539887354067441</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.416422666666667</v>
+      </c>
+      <c r="N27">
+        <v>7.249268</v>
+      </c>
+      <c r="O27">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="P27">
+        <v>0.2729115228630338</v>
+      </c>
+      <c r="Q27">
+        <v>24.10336020159022</v>
+      </c>
+      <c r="R27">
+        <v>216.930241814312</v>
+      </c>
+      <c r="S27">
+        <v>0.04202530028360733</v>
+      </c>
+      <c r="T27">
+        <v>0.04202530028360731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.974811333333333</v>
+      </c>
+      <c r="H28">
+        <v>29.924434</v>
+      </c>
+      <c r="I28">
+        <v>0.1539887354067442</v>
+      </c>
+      <c r="J28">
+        <v>0.1539887354067441</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N28">
+        <v>8.740964</v>
+      </c>
+      <c r="O28">
+        <v>0.3290690586319826</v>
+      </c>
+      <c r="P28">
+        <v>0.3290690586319827</v>
+      </c>
+      <c r="Q28">
+        <v>29.06315559048622</v>
+      </c>
+      <c r="R28">
+        <v>261.568400314376</v>
+      </c>
+      <c r="S28">
+        <v>0.05067292820022674</v>
+      </c>
+      <c r="T28">
+        <v>0.05067292820022674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.974811333333333</v>
+      </c>
+      <c r="H29">
+        <v>29.924434</v>
+      </c>
+      <c r="I29">
+        <v>0.1539887354067442</v>
+      </c>
+      <c r="J29">
+        <v>0.1539887354067441</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.02921733333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.08765200000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.003299814657423431</v>
+      </c>
+      <c r="P29">
+        <v>0.003299814657423432</v>
+      </c>
+      <c r="Q29">
+        <v>0.2914373876631111</v>
+      </c>
+      <c r="R29">
+        <v>2.622936488968</v>
+      </c>
+      <c r="S29">
+        <v>0.0005081342861732728</v>
+      </c>
+      <c r="T29">
+        <v>0.0005081342861732727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.974811333333333</v>
+      </c>
+      <c r="H30">
+        <v>29.924434</v>
+      </c>
+      <c r="I30">
+        <v>0.1539887354067442</v>
+      </c>
+      <c r="J30">
+        <v>0.1539887354067441</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.085553</v>
+      </c>
+      <c r="O30">
+        <v>0.003220794087830817</v>
+      </c>
+      <c r="P30">
+        <v>0.003220794087830818</v>
+      </c>
+      <c r="Q30">
+        <v>0.2844583446668889</v>
+      </c>
+      <c r="R30">
+        <v>2.560125102002</v>
+      </c>
+      <c r="S30">
+        <v>0.0004959660085905856</v>
+      </c>
+      <c r="T30">
+        <v>0.0004959660085905855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.974811333333333</v>
+      </c>
+      <c r="H31">
+        <v>29.924434</v>
+      </c>
+      <c r="I31">
+        <v>0.1539887354067442</v>
+      </c>
+      <c r="J31">
+        <v>0.1539887354067441</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.466422333333333</v>
+      </c>
+      <c r="N31">
+        <v>10.399267</v>
+      </c>
+      <c r="O31">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="P31">
+        <v>0.3914988097597293</v>
+      </c>
+      <c r="Q31">
+        <v>34.57690877665311</v>
+      </c>
+      <c r="R31">
+        <v>311.192178989878</v>
+      </c>
+      <c r="S31">
+        <v>0.06028640662814622</v>
+      </c>
+      <c r="T31">
+        <v>0.0602864066281462</v>
       </c>
     </row>
   </sheetData>
